--- a/data/tanzania/data_tanzania_6May25.xlsx
+++ b/data/tanzania/data_tanzania_6May25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmhp/Desktop/undp/TargetAssessmentReport/data/tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044E0DD-8179-BC4D-8C1B-824620854912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F791EE43-9975-FD43-AC5D-45836DDE9BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="0" windowWidth="18160" windowHeight="22240" xr2:uid="{A3CB3ECE-889E-C548-B93B-971EE082735C}"/>
+    <workbookView xWindow="9800" yWindow="0" windowWidth="24400" windowHeight="22240" xr2:uid="{A3CB3ECE-889E-C548-B93B-971EE082735C}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="3" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1472,6 +1472,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1633,10 +1639,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2014,14 +2021,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0549281-1B77-3B4C-B09B-A12B9BC733C4}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -2840,7 +2849,7 @@
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D32" t="s">
@@ -2866,7 +2875,7 @@
       <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D33" t="s">
@@ -2892,7 +2901,7 @@
       <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D34" t="s">
@@ -2918,7 +2927,7 @@
       <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D35" t="s">
@@ -2944,7 +2953,7 @@
       <c r="B36" t="s">
         <v>62</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D36" t="s">
@@ -3568,7 +3577,7 @@
       <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D60" t="s">
@@ -3594,7 +3603,7 @@
       <c r="B61" t="s">
         <v>86</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D61" t="s">
@@ -3620,7 +3629,7 @@
       <c r="B62" t="s">
         <v>87</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D62" t="s">
@@ -3698,7 +3707,7 @@
       <c r="B65" t="s">
         <v>90</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D65" t="s">
@@ -3724,7 +3733,7 @@
       <c r="B66" t="s">
         <v>91</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D66" t="s">
@@ -3750,7 +3759,7 @@
       <c r="B67" t="s">
         <v>92</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D67" t="s">
@@ -5659,7 +5668,7 @@
       <c r="B141" t="s">
         <v>314</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D141" t="s">
@@ -5685,7 +5694,7 @@
       <c r="B142" t="s">
         <v>315</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D142" t="s">
@@ -5711,7 +5720,7 @@
       <c r="B143" t="s">
         <v>316</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D143" t="s">
@@ -5737,7 +5746,7 @@
       <c r="B144" t="s">
         <v>317</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D144" t="s">
@@ -5763,7 +5772,7 @@
       <c r="B145" t="s">
         <v>318</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D145" t="s">
@@ -5789,7 +5798,7 @@
       <c r="B146" t="s">
         <v>319</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D146" t="s">
@@ -5815,7 +5824,7 @@
       <c r="B147" t="s">
         <v>320</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D147" t="s">
@@ -5841,7 +5850,7 @@
       <c r="B148" t="s">
         <v>321</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="3" t="s">
         <v>340</v>
       </c>
       <c r="D148" t="s">
@@ -5867,7 +5876,7 @@
       <c r="B149" t="s">
         <v>322</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>341</v>
       </c>
       <c r="D149" t="s">
@@ -5893,7 +5902,7 @@
       <c r="B150" t="s">
         <v>323</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D150" t="s">
